--- a/scriptspy/data/weapons_perks.xlsx
+++ b/scriptspy/data/weapons_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E58A71-3D10-4BA3-AD75-540C7D353974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25DAA4-A236-4BF2-9CA4-49EF46A9BB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$225</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="134">
   <si>
     <t>Missiles</t>
   </si>
@@ -340,6 +340,105 @@
   </si>
   <si>
     <t>"Quickshot"_Missile_Damage</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>9% FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>1s DURATION</t>
+  </si>
+  <si>
+    <t>5% DAMAGE</t>
+  </si>
+  <si>
+    <t>8% RANGE</t>
+  </si>
+  <si>
+    <t>7,5% PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>8% FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>2% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>9% FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>3% COOL_DOWN</t>
+  </si>
+  <si>
+    <t>2,5% DAMAGE</t>
+  </si>
+  <si>
+    <t>5% PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>0.5s DURATION</t>
+  </si>
+  <si>
+    <t>15% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>4,5% FIRE_DAMAGE</t>
+  </si>
+  <si>
+    <t>2% COOL_DOWN</t>
+  </si>
+  <si>
+    <t>3% DAMAGE</t>
+  </si>
+  <si>
+    <t>5% RANGE</t>
+  </si>
+  <si>
+    <t>12,5% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>2.5% DAMAGE</t>
+  </si>
+  <si>
+    <t>17,5% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>9% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>6% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>8% STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>10% STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>7,5% DAMAGE</t>
+  </si>
+  <si>
+    <t>6 DAMAGE</t>
+  </si>
+  <si>
+    <t>3 DAMAGE</t>
+  </si>
+  <si>
+    <t>1.5% CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>4,5% FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>3% PROJECTILE_SPEED</t>
   </si>
 </sst>
 </file>
@@ -368,7 +467,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +483,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,13 +601,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +624,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF9955FD"/>
       <color rgb="FFFF3F3F"/>
     </mruColors>
   </colors>
@@ -487,6 +638,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8589EE4-CB0D-4336-A701-03DC759E1694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8422005" y="217169"/>
+          <a:ext cx="7244715" cy="4017646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>READ FIRST</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: #e2efda</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> any thing here.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>Note : If</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,19 +1128,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -820,960 +1163,3835 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="E82" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B83" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="E84" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="E85" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B86" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C86" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D86" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="E91" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="13"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F135" s="13"/>
+    </row>
+    <row r="136" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="13"/>
+    </row>
+    <row r="137" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F139" s="13"/>
+    </row>
+    <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B143" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="E143" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B144" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C144" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F157" s="13"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F177" s="13"/>
+    </row>
+    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D179" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="E179" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F191" s="13"/>
+    </row>
+    <row r="192" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F192" s="13"/>
+    </row>
+    <row r="193" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F195" s="13"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B201" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C201" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D214" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D224" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="E224" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="B225" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>12</v>
+      <c r="C225" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E57" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}"/>
+  <autoFilter ref="A1:E225" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scriptspy/data/weapons_perks.xlsx
+++ b/scriptspy/data/weapons_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB95DC-275C-424D-A44B-6DA79E4B71B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E12B2-40EB-4000-A2ED-8B556C86BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="135">
   <si>
     <t>Missiles</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>3% PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>6% PROJECTILE_SPEED</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1135,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G237" sqref="G237"/>
+      <selection pane="bottomLeft" activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3245,17 +3248,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>66</v>
+      <c r="C124" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>102</v>

--- a/scriptspy/data/weapons_perks.xlsx
+++ b/scriptspy/data/weapons_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E12B2-40EB-4000-A2ED-8B556C86BD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452CA12-5135-4740-8217-517F7D1188FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -1135,7 +1135,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C230" sqref="C230"/>
+      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>45</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>36</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>36</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>45</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>45</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>36</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>36</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>36</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>45</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>45</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>36</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>36</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
         <v>36</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>45</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
         <v>45</v>
       </c>
@@ -4994,7 +4994,7 @@
   <autoFilter ref="A1:E225" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Fire_Bomb"/>
+        <filter val="Triple_Torpedo"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/scriptspy/data/weapons_perks.xlsx
+++ b/scriptspy/data/weapons_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\scriptspy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452CA12-5135-4740-8217-517F7D1188FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C00FDF-5CAE-4612-B2E9-E259AD1CC502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="138">
   <si>
     <t>Missiles</t>
   </si>
@@ -258,9 +258,6 @@
     <t>9 DAMAGE</t>
   </si>
   <si>
-    <t>25% STUN_CHANCE</t>
-  </si>
-  <si>
     <t>"Quickshot"_Fire_Duration</t>
   </si>
   <si>
@@ -442,6 +439,18 @@
   </si>
   <si>
     <t>6% PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>5% STUN_CHANCE</t>
+  </si>
+  <si>
+    <t>4% FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>4.5% FROST_DAMAGE</t>
+  </si>
+  <si>
+    <t>6% STUN_CHANCE</t>
   </si>
 </sst>
 </file>
@@ -1134,8 +1143,8 @@
   <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1297,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>59</v>
@@ -1322,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>59</v>
@@ -1339,7 +1348,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>62</v>
@@ -1351,12 +1360,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>51</v>
@@ -1368,12 +1377,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>63</v>
@@ -1385,12 +1394,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>62</v>
@@ -1407,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>68</v>
@@ -1419,12 +1428,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>62</v>
@@ -1458,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>56</v>
@@ -1475,7 +1484,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>63</v>
@@ -1509,7 +1518,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>64</v>
@@ -1526,7 +1535,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>71</v>
@@ -1560,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>64</v>
@@ -1577,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>73</v>
+      <c r="D26" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>12</v>
@@ -1595,13 +1604,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
@@ -1613,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>55</v>
@@ -1630,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>51</v>
@@ -1664,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>62</v>
@@ -1681,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>59</v>
@@ -1715,7 +1724,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>57</v>
@@ -1732,7 +1741,7 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>64</v>
@@ -1749,7 +1758,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>62</v>
@@ -1851,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>70</v>
@@ -1868,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>55</v>
@@ -1885,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>65</v>
@@ -1902,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>70</v>
@@ -1936,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>64</v>
@@ -1953,7 +1962,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>61</v>
@@ -1970,7 +1979,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>64</v>
@@ -1987,7 +1996,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>51</v>
@@ -2067,12 +2076,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>51</v>
@@ -2132,7 +2141,7 @@
         <v>54</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2149,7 +2158,7 @@
         <v>55</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2166,7 +2175,7 @@
         <v>62</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2183,7 +2192,7 @@
         <v>55</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2200,7 +2209,7 @@
         <v>53</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2217,7 +2226,7 @@
         <v>55</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2234,7 +2243,7 @@
         <v>55</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2242,7 +2251,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>59</v>
@@ -2251,7 +2260,7 @@
         <v>57</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F65" s="12"/>
     </row>
@@ -2269,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2277,7 +2286,7 @@
         <v>34</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>59</v>
@@ -2286,7 +2295,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2294,7 +2303,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>62</v>
@@ -2303,15 +2312,15 @@
         <v>68</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>51</v>
@@ -2320,15 +2329,15 @@
         <v>55</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>63</v>
@@ -2337,15 +2346,15 @@
         <v>55</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>62</v>
@@ -2354,7 +2363,7 @@
         <v>66</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2362,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>68</v>
@@ -2371,15 +2380,15 @@
         <v>55</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>62</v>
@@ -2388,7 +2397,7 @@
         <v>68</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2405,7 +2414,7 @@
         <v>54</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2413,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>56</v>
@@ -2422,7 +2431,7 @@
         <v>53</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2430,7 +2439,7 @@
         <v>40</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>63</v>
@@ -2439,7 +2448,7 @@
         <v>55</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2456,7 +2465,7 @@
         <v>57</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2464,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>64</v>
@@ -2473,7 +2482,7 @@
         <v>66</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2481,7 +2490,7 @@
         <v>41</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>71</v>
@@ -2490,7 +2499,7 @@
         <v>64</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F79" s="12"/>
     </row>
@@ -2508,7 +2517,7 @@
         <v>54</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F80" s="12"/>
     </row>
@@ -2517,7 +2526,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>64</v>
@@ -2526,7 +2535,7 @@
         <v>53</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2534,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>73</v>
+      <c r="D82" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2551,16 +2560,16 @@
         <v>1</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F83" s="12"/>
     </row>
@@ -2569,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>55</v>
@@ -2578,7 +2587,7 @@
         <v>52</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2586,7 +2595,7 @@
         <v>43</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>51</v>
@@ -2595,7 +2604,7 @@
         <v>66</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2612,7 +2621,7 @@
         <v>54</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2620,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>62</v>
@@ -2629,7 +2638,7 @@
         <v>66</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2637,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>59</v>
@@ -2646,7 +2655,7 @@
         <v>67</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2663,7 +2672,7 @@
         <v>54</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2671,16 +2680,16 @@
         <v>45</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2688,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>64</v>
@@ -2697,7 +2706,7 @@
         <v>53</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2705,16 +2714,16 @@
         <v>37</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2731,7 +2740,7 @@
         <v>54</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2748,7 +2757,7 @@
         <v>53</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2765,7 +2774,7 @@
         <v>57</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2782,7 +2791,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2799,7 +2808,7 @@
         <v>55</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2807,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>70</v>
@@ -2816,7 +2825,7 @@
         <v>54</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F98" s="12"/>
     </row>
@@ -2825,7 +2834,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>55</v>
@@ -2834,7 +2843,7 @@
         <v>53</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2842,7 +2851,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>65</v>
@@ -2851,7 +2860,7 @@
         <v>54</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2859,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>70</v>
@@ -2868,7 +2877,7 @@
         <v>64</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2885,7 +2894,7 @@
         <v>67</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2893,7 +2902,7 @@
         <v>34</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>64</v>
@@ -2902,7 +2911,7 @@
         <v>67</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2910,16 +2919,16 @@
         <v>41</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2927,7 +2936,7 @@
         <v>46</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>64</v>
@@ -2936,7 +2945,7 @@
         <v>58</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2944,7 +2953,7 @@
         <v>47</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>51</v>
@@ -2953,7 +2962,7 @@
         <v>55</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2970,7 +2979,7 @@
         <v>53</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2987,7 +2996,7 @@
         <v>55</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3004,7 +3013,7 @@
         <v>54</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F109" s="12"/>
     </row>
@@ -3022,15 +3031,15 @@
         <v>67</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>51</v>
@@ -3039,7 +3048,7 @@
         <v>57</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3056,7 +3065,7 @@
         <v>67</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3073,7 +3082,7 @@
         <v>67</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3084,13 +3093,13 @@
         <v>13</v>
       </c>
       <c r="C114" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="E114" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3101,13 +3110,13 @@
         <v>14</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3118,13 +3127,13 @@
         <v>48</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3135,13 +3144,13 @@
         <v>49</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3158,7 +3167,7 @@
         <v>53</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3175,7 +3184,7 @@
         <v>55</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3186,13 +3195,13 @@
         <v>15</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3200,16 +3209,16 @@
         <v>33</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F121" s="12"/>
     </row>
@@ -3221,13 +3230,13 @@
         <v>16</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3235,7 +3244,7 @@
         <v>34</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>59</v>
@@ -3244,7 +3253,7 @@
         <v>67</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3252,24 +3261,24 @@
         <v>35</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>51</v>
@@ -3278,15 +3287,15 @@
         <v>55</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>63</v>
@@ -3295,24 +3304,24 @@
         <v>55</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>66</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3320,7 +3329,7 @@
         <v>37</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>68</v>
@@ -3329,15 +3338,15 @@
         <v>55</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>62</v>
@@ -3346,7 +3355,7 @@
         <v>66</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3363,7 +3372,7 @@
         <v>53</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3371,16 +3380,16 @@
         <v>0</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3388,7 +3397,7 @@
         <v>40</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>63</v>
@@ -3397,7 +3406,7 @@
         <v>55</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3408,13 +3417,13 @@
         <v>16</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3422,16 +3431,16 @@
         <v>41</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3439,16 +3448,16 @@
         <v>41</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F135" s="12"/>
     </row>
@@ -3466,7 +3475,7 @@
         <v>53</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F136" s="12"/>
     </row>
@@ -3475,7 +3484,7 @@
         <v>42</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>64</v>
@@ -3484,7 +3493,7 @@
         <v>53</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3492,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>73</v>
+        <v>105</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3509,16 +3518,16 @@
         <v>1</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>73</v>
+      <c r="D139" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F139" s="12"/>
     </row>
@@ -3527,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>55</v>
@@ -3536,7 +3545,7 @@
         <v>52</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3544,7 +3553,7 @@
         <v>43</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>51</v>
@@ -3553,7 +3562,7 @@
         <v>66</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3564,13 +3573,13 @@
         <v>20</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3578,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>62</v>
@@ -3587,7 +3596,7 @@
         <v>67</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3595,16 +3604,16 @@
         <v>2</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3615,13 +3624,13 @@
         <v>20</v>
       </c>
       <c r="C145" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D145" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="E145" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3629,16 +3638,16 @@
         <v>45</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3646,16 +3655,16 @@
         <v>46</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3663,16 +3672,16 @@
         <v>37</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3683,13 +3692,13 @@
         <v>20</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3706,7 +3715,7 @@
         <v>53</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3717,13 +3726,13 @@
         <v>18</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D151" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3737,10 +3746,10 @@
         <v>56</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3751,13 +3760,13 @@
         <v>49</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3765,16 +3774,16 @@
         <v>5</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D154" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3782,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>55</v>
@@ -3791,7 +3800,7 @@
         <v>53</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3799,7 +3808,7 @@
         <v>5</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>65</v>
@@ -3808,7 +3817,7 @@
         <v>53</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3816,16 +3825,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F157" s="12"/>
     </row>
@@ -3843,7 +3852,7 @@
         <v>67</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3851,7 +3860,7 @@
         <v>34</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>64</v>
@@ -3860,7 +3869,7 @@
         <v>67</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3868,7 +3877,7 @@
         <v>41</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>61</v>
@@ -3877,7 +3886,7 @@
         <v>55</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3885,7 +3894,7 @@
         <v>46</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>64</v>
@@ -3894,7 +3903,7 @@
         <v>58</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3902,7 +3911,7 @@
         <v>47</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>51</v>
@@ -3911,7 +3920,7 @@
         <v>55</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3928,7 +3937,7 @@
         <v>53</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3945,7 +3954,7 @@
         <v>55</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3956,13 +3965,13 @@
         <v>25</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3979,24 +3988,24 @@
         <v>67</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4010,10 +4019,10 @@
         <v>56</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4030,7 +4039,7 @@
         <v>67</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4041,13 +4050,13 @@
         <v>13</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4064,7 +4073,7 @@
         <v>55</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4075,13 +4084,13 @@
         <v>48</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4098,7 +4107,7 @@
         <v>55</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4115,7 +4124,7 @@
         <v>53</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4132,7 +4141,7 @@
         <v>55</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4149,7 +4158,7 @@
         <v>55</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4157,16 +4166,16 @@
         <v>33</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F177" s="12"/>
     </row>
@@ -4178,13 +4187,13 @@
         <v>16</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4192,16 +4201,16 @@
         <v>34</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4209,7 +4218,7 @@
         <v>35</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>62</v>
@@ -4218,15 +4227,15 @@
         <v>66</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>51</v>
@@ -4235,15 +4244,15 @@
         <v>55</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>63</v>
@@ -4252,24 +4261,24 @@
         <v>55</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4277,24 +4286,24 @@
         <v>37</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>62</v>
@@ -4303,7 +4312,7 @@
         <v>66</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4320,7 +4329,7 @@
         <v>53</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4328,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>56</v>
@@ -4337,7 +4346,7 @@
         <v>53</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4345,7 +4354,7 @@
         <v>40</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>63</v>
@@ -4354,7 +4363,7 @@
         <v>55</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4365,13 +4374,13 @@
         <v>16</v>
       </c>
       <c r="C189" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D189" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E189" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4379,16 +4388,16 @@
         <v>41</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>67</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4396,16 +4405,16 @@
         <v>41</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F191" s="12"/>
     </row>
@@ -4417,13 +4426,13 @@
         <v>22</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F192" s="12"/>
     </row>
@@ -4432,7 +4441,7 @@
         <v>42</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>64</v>
@@ -4441,7 +4450,7 @@
         <v>53</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4449,68 +4458,68 @@
         <v>1</v>
       </c>
       <c r="B194" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C194" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="3" t="s">
+      <c r="C195" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F195" s="12"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B196" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F195" s="12"/>
-    </row>
-    <row r="196" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="4" t="s">
+      <c r="C196" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B197" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>66</v>
+      <c r="C197" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4527,7 +4536,7 @@
         <v>53</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4535,16 +4544,16 @@
         <v>2</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C199" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D199" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E199" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4552,16 +4561,16 @@
         <v>2</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4572,13 +4581,13 @@
         <v>20</v>
       </c>
       <c r="C201" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D201" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D201" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="E201" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4586,16 +4595,16 @@
         <v>45</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4603,16 +4612,16 @@
         <v>46</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C203" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D203" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D203" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="E203" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4620,16 +4629,16 @@
         <v>37</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4640,13 +4649,13 @@
         <v>20</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4663,7 +4672,7 @@
         <v>53</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4674,13 +4683,13 @@
         <v>18</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4706,7 @@
         <v>53</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4714,7 +4723,7 @@
         <v>55</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4722,16 +4731,16 @@
         <v>5</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D210" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4739,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>55</v>
@@ -4748,24 +4757,24 @@
         <v>53</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>53</v>
+      <c r="B212" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4773,16 +4782,16 @@
         <v>5</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F213" s="12"/>
     </row>
@@ -4800,24 +4809,24 @@
         <v>67</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>67</v>
+      <c r="B215" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4825,7 +4834,7 @@
         <v>41</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>61</v>
@@ -4834,7 +4843,7 @@
         <v>55</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4842,7 +4851,7 @@
         <v>46</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>64</v>
@@ -4851,7 +4860,7 @@
         <v>58</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4859,7 +4868,7 @@
         <v>47</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>51</v>
@@ -4868,7 +4877,7 @@
         <v>55</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4879,13 +4888,13 @@
         <v>23</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4896,13 +4905,13 @@
         <v>24</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4913,13 +4922,13 @@
         <v>25</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4936,15 +4945,15 @@
         <v>67</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>51</v>
@@ -4953,24 +4962,24 @@
         <v>55</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>67</v>
+      <c r="D224" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4981,20 +4990,20 @@
         <v>28</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E225" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Triple_Torpedo"/>
+        <filter val="Big_Torpedo"/>
       </filters>
     </filterColumn>
   </autoFilter>
